--- a/admin/files/vacapp.xlsx
+++ b/admin/files/vacapp.xlsx
@@ -47,12 +47,6 @@
     <t>Ram</t>
   </si>
   <si>
-    <t>kumar@gmail.com</t>
-  </si>
-  <si>
-    <t>ram@gmail.com</t>
-  </si>
-  <si>
     <t>101,East Street,London</t>
   </si>
   <si>
@@ -75,6 +69,12 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>kumar1@gmail.com</t>
+  </si>
+  <si>
+    <t>ram1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,13 +446,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -463,22 +463,22 @@
         <v>35</v>
       </c>
       <c r="C2">
-        <v>9786576543</v>
+        <v>9786576541</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="2">
         <v>44180</v>
       </c>
       <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -489,28 +489,28 @@
         <v>45</v>
       </c>
       <c r="C3">
-        <v>8765467523</v>
+        <v>8765467525</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="2">
         <v>44183</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/admin/files/vacapp.xlsx
+++ b/admin/files/vacapp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -41,12 +41,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Kumar</t>
-  </si>
-  <si>
-    <t>Ram</t>
-  </si>
-  <si>
     <t>101,East Street,London</t>
   </si>
   <si>
@@ -62,19 +56,34 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Doctor_name</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>kumar1@gmail.com</t>
-  </si>
-  <si>
-    <t>ram1@gmail.com</t>
+    <t>Santhosh</t>
+  </si>
+  <si>
+    <t>santhosh@hridhamtech.com</t>
+  </si>
+  <si>
+    <t>63  Farburn Terrace,LITTLE LONDON</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>Yuvaraj</t>
+  </si>
+  <si>
+    <t>yuvaraj@hridhamtech.com</t>
+  </si>
+  <si>
+    <t>Gopi</t>
+  </si>
+  <si>
+    <t>gopi@hridhamtech.com</t>
   </si>
 </sst>
 </file>
@@ -127,10 +136,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -413,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,39 +433,35 @@
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>35</v>
@@ -466,24 +470,21 @@
         <v>9786576541</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" s="2">
-        <v>44180</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>45</v>
@@ -492,27 +493,48 @@
         <v>8765467525</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2">
-        <v>44183</v>
-      </c>
       <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>8765476542</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>